--- a/docs/Check.xlsx
+++ b/docs/Check.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\andrey\qa-diplom\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\diplomNetology\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706BE857-D6B3-4D48-ABA2-16AB971A27AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB515D4-9D30-496B-9FDA-58F7065E9080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{8D7032A7-027B-4F0B-867C-6EC1A1B17744}"/>
+    <workbookView xWindow="-28920" yWindow="-1545" windowWidth="29040" windowHeight="15840" xr2:uid="{8D7032A7-027B-4F0B-867C-6EC1A1B17744}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
   <si>
     <t>Авторизация в приложение под валидными учетными данными</t>
   </si>
@@ -211,6 +211,15 @@
   </si>
   <si>
     <t>ID кейса в тест плане:</t>
+  </si>
+  <si>
+    <t>Результат:</t>
+  </si>
+  <si>
+    <t>Не рабочая ссылка</t>
+  </si>
+  <si>
+    <t>Автоматизировано:</t>
   </si>
 </sst>
 </file>
@@ -593,20 +602,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678B4764-C494-4B32-98C7-81DD5DEC7929}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="94.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="1" max="1" width="94.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -616,14 +627,20 @@
       <c r="C1" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -633,8 +650,11 @@
       <c r="C4" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -644,8 +664,11 @@
       <c r="C5" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -655,17 +678,20 @@
       <c r="C6" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -675,8 +701,11 @@
       <c r="C9" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -686,8 +715,11 @@
       <c r="C10" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -697,8 +729,11 @@
       <c r="C11" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -708,8 +743,11 @@
       <c r="C12" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
@@ -719,8 +757,14 @@
       <c r="C13" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -730,8 +774,14 @@
       <c r="C14" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -741,17 +791,20 @@
       <c r="C15" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -762,7 +815,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -773,7 +826,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -784,7 +837,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -795,7 +848,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -806,7 +859,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -817,7 +870,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -828,7 +881,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -839,7 +892,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -850,16 +903,16 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -870,7 +923,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -881,7 +934,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -892,7 +945,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -903,7 +956,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -914,7 +967,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -927,6 +980,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/Check.xlsx
+++ b/docs/Check.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\diplomNetology\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB515D4-9D30-496B-9FDA-58F7065E9080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F36B48-E396-4CE3-B286-6FA1D6A50D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1545" windowWidth="29040" windowHeight="15840" xr2:uid="{8D7032A7-027B-4F0B-867C-6EC1A1B17744}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D7032A7-027B-4F0B-867C-6EC1A1B17744}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="62">
   <si>
     <t>Авторизация в приложение под валидными учетными данными</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Создание новой заполненной заявки (Happy Path)</t>
   </si>
   <si>
-    <t>Создание новой заявки с пустыми полями</t>
-  </si>
-  <si>
     <t>Создние новой заявки с незаполненным исполнителем</t>
   </si>
   <si>
@@ -220,6 +217,9 @@
   </si>
   <si>
     <t>Автоматизировано:</t>
+  </si>
+  <si>
+    <t>Попытка создания новой заявки с пустыми полями</t>
   </si>
 </sst>
 </file>
@@ -605,7 +605,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,19 +619,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -645,13 +645,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -659,13 +659,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -673,13 +673,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -693,30 +693,30 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -724,13 +724,13 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -738,13 +738,13 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -752,16 +752,16 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -769,16 +769,16 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -786,196 +786,211 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
       <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C25" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>21</v>
       </c>
-      <c r="B29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="4" t="s">
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>22</v>
       </c>
-      <c r="B30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="4" t="s">
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>23</v>
       </c>
-      <c r="B31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="4" t="s">
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Check.xlsx
+++ b/docs/Check.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\diplomNetology\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F36B48-E396-4CE3-B286-6FA1D6A50D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B34766-F107-45CF-B38D-E169678A6D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D7032A7-027B-4F0B-867C-6EC1A1B17744}"/>
+    <workbookView xWindow="-28920" yWindow="-1545" windowWidth="29040" windowHeight="15840" xr2:uid="{8D7032A7-027B-4F0B-867C-6EC1A1B17744}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="62">
   <si>
     <t>Авторизация в приложение под валидными учетными данными</t>
   </si>
@@ -605,7 +605,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,6 +884,9 @@
       <c r="C23" s="4" t="s">
         <v>47</v>
       </c>
+      <c r="D23" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -894,6 +897,9 @@
       </c>
       <c r="C24" s="4" t="s">
         <v>48</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">

--- a/docs/Check.xlsx
+++ b/docs/Check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\diplomNetology\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B34766-F107-45CF-B38D-E169678A6D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DC75BD-1FFB-4CE2-A3DE-0B979897F8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1545" windowWidth="29040" windowHeight="15840" xr2:uid="{8D7032A7-027B-4F0B-867C-6EC1A1B17744}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
   <si>
     <t>Авторизация в приложение под валидными учетными данными</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>Попытка создания новой заявки с пустыми полями</t>
+  </si>
+  <si>
+    <t>Время комментария не совпадает с текущим на устройстве</t>
   </si>
 </sst>
 </file>
@@ -605,7 +608,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,7 +617,7 @@
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="5" max="5" width="54.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -798,13 +801,13 @@
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -818,7 +821,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>61</v>
       </c>
@@ -832,7 +835,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -846,7 +849,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -860,7 +863,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -874,7 +877,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -888,7 +891,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -902,7 +905,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -912,8 +915,14 @@
       <c r="C25" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -924,16 +933,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -944,7 +953,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -955,7 +964,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -966,7 +975,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>23</v>
       </c>

--- a/docs/Check.xlsx
+++ b/docs/Check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\diplomNetology\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DC75BD-1FFB-4CE2-A3DE-0B979897F8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8D1258-6698-4C5E-8624-D00D381D3086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1545" windowWidth="29040" windowHeight="15840" xr2:uid="{8D7032A7-027B-4F0B-867C-6EC1A1B17744}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
   <si>
     <t>Авторизация в приложение под валидными учетными данными</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>Время комментария не совпадает с текущим на устройстве</t>
+  </si>
+  <si>
+    <t>Время исправленного комментария не совпадает с текущим на устройстве</t>
   </si>
 </sst>
 </file>
@@ -608,7 +611,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,7 +620,7 @@
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="54.85546875" customWidth="1"/>
+    <col min="5" max="5" width="70.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -932,6 +935,12 @@
       <c r="C26" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="D26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C27" s="4"/>

--- a/docs/Check.xlsx
+++ b/docs/Check.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\diplomNetology\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8D1258-6698-4C5E-8624-D00D381D3086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A02025-4EC5-45F5-BCF7-FA40796AA2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1545" windowWidth="29040" windowHeight="15840" xr2:uid="{8D7032A7-027B-4F0B-867C-6EC1A1B17744}"/>
+    <workbookView xWindow="-25560" yWindow="1245" windowWidth="21600" windowHeight="11385" xr2:uid="{8D7032A7-027B-4F0B-867C-6EC1A1B17744}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="64">
   <si>
     <t>Авторизация в приложение под валидными учетными данными</t>
   </si>
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678B4764-C494-4B32-98C7-81DD5DEC7929}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,6 +961,9 @@
       <c r="C29" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="D29" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">

--- a/docs/Check.xlsx
+++ b/docs/Check.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\diplomNetology\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A02025-4EC5-45F5-BCF7-FA40796AA2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A362CF-14CC-48A3-B264-497B31382DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25560" yWindow="1245" windowWidth="21600" windowHeight="11385" xr2:uid="{8D7032A7-027B-4F0B-867C-6EC1A1B17744}"/>
+    <workbookView xWindow="-28920" yWindow="-1545" windowWidth="29040" windowHeight="15840" xr2:uid="{8D7032A7-027B-4F0B-867C-6EC1A1B17744}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="64">
   <si>
     <t>Авторизация в приложение под валидными учетными данными</t>
   </si>
@@ -611,7 +611,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,6 +975,9 @@
       <c r="C30" s="4" t="s">
         <v>52</v>
       </c>
+      <c r="D30" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -985,6 +988,9 @@
       </c>
       <c r="C31" s="4" t="s">
         <v>53</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">

--- a/docs/Check.xlsx
+++ b/docs/Check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\diplomNetology\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A362CF-14CC-48A3-B264-497B31382DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBA60D0-4514-49FA-97A8-D406C5AEE66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1545" windowWidth="29040" windowHeight="15840" xr2:uid="{8D7032A7-027B-4F0B-867C-6EC1A1B17744}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="64">
   <si>
     <t>Авторизация в приложение под валидными учетными данными</t>
   </si>
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678B4764-C494-4B32-98C7-81DD5DEC7929}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,8 +1003,11 @@
       <c r="C32" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -1014,8 +1017,11 @@
       <c r="C33" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>

--- a/docs/Check.xlsx
+++ b/docs/Check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\diplomNetology\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBA60D0-4514-49FA-97A8-D406C5AEE66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AF3E86-41CB-4018-81CA-0FF9165A2034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1545" windowWidth="29040" windowHeight="15840" xr2:uid="{8D7032A7-027B-4F0B-867C-6EC1A1B17744}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="64">
   <si>
     <t>Авторизация в приложение под валидными учетными данными</t>
   </si>
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678B4764-C494-4B32-98C7-81DD5DEC7929}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,6 +1031,9 @@
       <c r="C34" s="4" t="s">
         <v>56</v>
       </c>
+      <c r="D34" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/Check.xlsx
+++ b/docs/Check.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\diplomNetology\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AF3E86-41CB-4018-81CA-0FF9165A2034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B59E84B-B741-4730-BE41-6D775756F253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1545" windowWidth="29040" windowHeight="15840" xr2:uid="{8D7032A7-027B-4F0B-867C-6EC1A1B17744}"/>
+    <workbookView xWindow="-28920" yWindow="1305" windowWidth="29040" windowHeight="15720" xr2:uid="{8D7032A7-027B-4F0B-867C-6EC1A1B17744}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -611,19 +611,19 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="94.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="70.5703125" customWidth="1"/>
+    <col min="1" max="1" width="94.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="70.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -640,13 +640,13 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -660,7 +660,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -674,7 +674,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -688,16 +688,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -711,7 +711,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -725,7 +725,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -739,7 +739,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -753,7 +753,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
@@ -770,7 +770,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -787,7 +787,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -801,16 +801,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -824,7 +824,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>61</v>
       </c>
@@ -838,7 +838,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -852,7 +852,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -866,7 +866,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -880,7 +880,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -894,7 +894,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -908,7 +908,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -925,7 +925,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -942,16 +942,16 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -965,7 +965,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -979,7 +979,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -993,7 +993,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>31</v>
       </c>
